--- a/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
+++ b/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="453">
   <si>
     <t>クローリング（Crawling)</t>
     <phoneticPr fontId="1"/>
@@ -2681,6 +2681,208 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページを取得する</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urllibによるWebページの取得</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$souce scraping/bin/activate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from urllib.request import urloopen</t>
+  </si>
+  <si>
+    <t>Traceback (most recent call last):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;stdin&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t>ImportError: cannot import name 'urloopen'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from urllib.request import urlopen</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; f=urlopen('http://sample.scraping-book.com/dp')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; type(f)</t>
+  </si>
+  <si>
+    <t>&lt;class 'http.client.HTTPResponse'&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; f.read()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; f=urlopen('http://gihyo.jp/dp')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/usr/lib64/python3.5/urllib/request.py", line 163, in urlopen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return opener.open(url, data, timeout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/usr/lib64/python3.5/urllib/request.py", line 472, in open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    response = meth(req, response)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/usr/lib64/python3.5/urllib/request.py", line 582, in http_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'http', request, response, code, msg, hdrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/usr/lib64/python3.5/urllib/request.py", line 510, in error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self._call_chain(*args)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/usr/lib64/python3.5/urllib/request.py", line 444, in _call_chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    result = func(*args)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/usr/lib64/python3.5/urllib/request.py", line 590, in http_error_default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    raise HTTPError(req.full_url, code, msg, hdrs, fp)</t>
+  </si>
+  <si>
+    <t>urllib.error.HTTPError: HTTP Error 403: Forbidden</t>
+  </si>
+  <si>
+    <t>参考　サイトによってNGになる。</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import urllib.request</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; url="http://gihyo.jp/dp"</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; headers = {</t>
+  </si>
+  <si>
+    <t>...         "User-Agent": "Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:47.0) Gecko/20100101 Firefox/47.0",</t>
+  </si>
+  <si>
+    <t>...         }</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; request = urllib.request.Request(url=url, headers=headers)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; response = urllib.request.urlopen(request)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; html = response.read().decode('utf-8')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; print(html)</t>
+  </si>
+  <si>
+    <t>その際は以下を実行する</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; f.status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; f.getheader('Content-Type')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'text/html:charset=UTF-8'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～HTML情報が表示されるが文字コードを指定していないのででコードする必要がある。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; f.info().get_content_charset()</t>
+  </si>
+  <si>
+    <t>'utf-8'</t>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを取得するには正規表現が必要になる。</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2689,7 +2891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2736,6 +2938,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2758,7 +2969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2766,6 +2977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4905,10 +5117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5180,7 +5392,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C65">
         <v>5</v>
       </c>
@@ -5191,7 +5403,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C66">
         <v>6</v>
       </c>
@@ -5202,7 +5414,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C67">
         <v>7</v>
       </c>
@@ -5213,7 +5425,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C68">
         <v>8</v>
       </c>
@@ -5224,7 +5436,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C69">
         <v>9</v>
       </c>
@@ -5235,7 +5447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C70">
         <v>10</v>
       </c>
@@ -5246,7 +5458,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C71">
         <v>11</v>
       </c>
@@ -5257,7 +5469,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72">
         <v>12</v>
       </c>
@@ -5268,7 +5480,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C73">
         <v>13</v>
       </c>
@@ -5279,7 +5491,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74">
         <v>14</v>
       </c>
@@ -5290,7 +5502,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C75">
         <v>15</v>
       </c>
@@ -5301,7 +5513,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C76">
         <v>16</v>
       </c>
@@ -5312,7 +5524,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C77">
         <v>17</v>
       </c>
@@ -5321,6 +5533,277 @@
       </c>
       <c r="H77" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C95" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C97" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C99" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D108" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D110" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D111" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D112" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D113" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D114" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D115" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D116" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D118" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D121" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D123" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D125" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D126" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D127" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D128" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>445</v>
+      </c>
+      <c r="L133" t="s">
+        <v>451</v>
+      </c>
+      <c r="M133" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C134" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>449</v>
+      </c>
+      <c r="L136" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
+++ b/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="528">
   <si>
     <t>クローリング（Crawling)</t>
     <phoneticPr fontId="1"/>
@@ -2883,6 +2883,699 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページからデータを抜き出す</t>
+    <rPh sb="12" eb="13">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピングの手法として、次の２つがある。</t>
+    <rPh sb="8" eb="10">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの手法で得意とするデータが異なるので、対象のWebサイトに合わせて</t>
+    <rPh sb="5" eb="7">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い分けられるようにしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLパーサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLを単純な文字列とみなして必要な部分を抜き出す。</t>
+    <rPh sb="5" eb="7">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、きれいにマークアップされていないWebページでも、文字列の特徴を</t>
+    <rPh sb="30" eb="33">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とらえてスクレイピングできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLとみなして、XMLのタグを解析（パース）して必要な部分を抜き出す。</t>
+    <rPh sb="16" eb="18">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、情報がXMLとして提供されている場合には、正規表現に比べて</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単かつ確実に必要とする部分を抜き出せます。</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクジツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、XMLパーサーでHTMLをパースすることはできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このためHTMLをパースするためには専用のHTMLパーサーが必要であり、</t>
+    <rPh sb="18" eb="20">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonでは標準モジュールのhtml.parserモジュールを使うと、HTMLをパース</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できますが、このモジュールは使い難い部分があるため別のサードパーティ</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリを使用する方が良い。</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現によるスクレイピング</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type "help", "copyright", "credits" or "license" for more information.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import re</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; re.search(r'a.*c','abc123DEF')</t>
+  </si>
+  <si>
+    <t>&lt;_sre.SRE_Match object; span=(0, 3), match='abc'&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; re.search(r'a.*d','abc123DEF')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチした場合は結果が返されるが、マッチしない場合はNoneが返ってくる。</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; re.search(r'a.*d','abc123DEF',re.IGNORECASE)</t>
+  </si>
+  <si>
+    <t>&lt;_sre.SRE_Match object; span=(0, 7), match='abc123D'&gt;</t>
+  </si>
+  <si>
+    <t>第三引数にre.IGNORECASEを指定すると、大文字小文字を無視する。</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; m=re.search(r'a.*d','abc123DEF',re.IGNORECASE)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; m.group(0)</t>
+  </si>
+  <si>
+    <t>'abc123D'</t>
+  </si>
+  <si>
+    <t>re.searchでマッチした場合はMatchオブジェクトが返され、そのMatchオブジェクトの</t>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group()メソッドでマッチした値を取得できる。group()メソッドの引数に0を指定すると、</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現全体にマッチした値が得られる。</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; m=re.search(r'a(.*)d','abc123DEF',re.IGNORECASE)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; m.group(1)</t>
+  </si>
+  <si>
+    <t>'bc123'</t>
+  </si>
+  <si>
+    <t>正規表現内で()を指定すると、Matchオブジェクトのgroup()メソッドの引数に１を</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定すると、その部分だけを抜き出すことができる。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; re.findall(r'\w{2,}','This is a pen')</t>
+  </si>
+  <si>
+    <t>['This', 'is', 'pen']</t>
+  </si>
+  <si>
+    <t>\w はUnicodeで単語の一部になりえる文字にマッチする。 他にも空白文字に</t>
+    <rPh sb="12" eb="14">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチする\sなどがある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re.findall()関数を使うと正規表現にマッチするすべての箇所を取得できる。</t>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; re.sub(r'\w{2,}','That','This is a pen')</t>
+  </si>
+  <si>
+    <t>'That That a That'</t>
+  </si>
+  <si>
+    <t>re.sub()関数を使うと、正規表現にマッチする箇所を置換できる。</t>
+    <rPh sb="8" eb="10">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三引数の文字列の中で、第一引数の正規表現にマッチする箇所を</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て第２引数の文字列に置換した文字を返す。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">import re </t>
+  </si>
+  <si>
+    <t>from html import unescape</t>
+  </si>
+  <si>
+    <t>with open('db.html') as f:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    html = f.read()</t>
+  </si>
+  <si>
+    <t>for partial_html in re.findall(r'&lt;a itemprop="url".*?&lt;/ul&gt;\s*&lt;/a&gt;&lt;/li&gt;',html,re.DOTALL):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    match = re.search(r'&lt;a itemprop="url" href="(.*?)"&gt;', partial_html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    url = match.group(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    url = 'https://gihyo.jp' + url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    match = re.search(r'&lt;p itemprop="name".*?&lt;/p&gt;', partial_html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title = match.group(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title = title. replace('&lt;br/&gt;', '')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title = re.sub( r'&lt;.*?&gt;', '', title) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title = unescape( title) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print( url, title)</t>
+  </si>
+  <si>
+    <t>XMLのスクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonの標準ライブラリにはXMLを扱うためのモジュールがいくつか含まれています。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xml.etree.ElementTreeが使いやすくおススメです。</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを保存する</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV形式で保存</t>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print等によるCSVデータの標準出力をファイルに理だくレクとすることで保存できる。</t>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値にカンマや改行を含む場合は、適切にエスケープをする必要がある。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しくエスケープするのは意外と大変だが、csvモジュールを使うと意識することなく</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープすることができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3285,7 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M441"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A114" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
@@ -5117,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P137"/>
+  <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M136" sqref="M136"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5764,12 +6457,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D129" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B131">
         <v>2</v>
       </c>
@@ -5777,7 +6470,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C133" t="s">
         <v>445</v>
       </c>
@@ -5788,12 +6481,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C134" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C136" t="s">
         <v>449</v>
       </c>
@@ -5801,9 +6494,408 @@
         <v>451</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C137" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>457</v>
+      </c>
+      <c r="C145" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>458</v>
+      </c>
+      <c r="C151" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C160" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C161" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C166" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C167" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C168" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C169" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C178" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C180" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C183" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C194" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C196" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C197" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C199" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C200" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C201" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C204" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C210" t="s">
+        <v>503</v>
+      </c>
+      <c r="E210" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E211" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E213" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E214" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E216" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E217" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E218" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E219" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E221" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E222" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E224" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E225" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E226" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E227" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C231" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C232" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C238" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C240" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C241" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C242" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C244" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
+++ b/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
+    <sheet name="第三章" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="714">
   <si>
     <t>クローリング（Crawling)</t>
     <phoneticPr fontId="1"/>
@@ -3509,25 +3510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>print等によるCSVデータの標準出力をファイルに理だくレクとすることで保存できる。</t>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>リ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>値にカンマや改行を含む場合は、適切にエスケープをする必要がある。</t>
     <rPh sb="0" eb="1">
       <t>アタイ</t>
@@ -3578,6 +3560,992 @@
       <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print等によるCSVデータの標準出力をファイルにリダイレクトすることで保存できる。</t>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print('rank,city,population')</t>
+  </si>
+  <si>
+    <t>print(','.join(['1','上海','24150000']))</t>
+  </si>
+  <si>
+    <t>print(','.join(['2','カラチ','24150000']))</t>
+  </si>
+  <si>
+    <t>print(','.join(['3','北京','24150000']))</t>
+  </si>
+  <si>
+    <t>print(','.join(['4','天津','24150000']))</t>
+  </si>
+  <si>
+    <t>csvモジュールによる処理</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV/TSVでは値にカンマやタブが含まれていると扱いが面倒ですが、csvモジュールを</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用すれば、適切にエスケープ処理を行ってくれます。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import csv</t>
+  </si>
+  <si>
+    <t>with open('top_cities.csv','w',newline='') as f:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    writer = csv.writer(f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 1行の出力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    writer.writerow(['rank','city','population'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # リストの複数行への出力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    writer.writerows([</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ['1','上海','24150000'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ['2','カラチ','23500000'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ['3','北京','21516000'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ['4','天津','14722100'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ['5','イスタンブール','14160467'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    writer = csv.DictWriter(f,['rank','city','population'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    writer.writeheader()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {'rank':'1','city':'上海','population':'24150000'},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {'rank':'2','city':'カラチ','population':'23500000'},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {'rank':'3','city':'北京','population':'21516000'},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {'rank':'4','city':'天津','population':'14722100'},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {'rank':'5','population':'14160467','city':'イスタンブール'},</t>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルのエンコーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-8(BOM付き)</t>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift JIS(CP932)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'utf-8'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'utf-8-sig'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'utf-16'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'up-932'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSON形式での保存</t>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PythonでJSON形式を扱うには、jsonモジュールを利用する。</t>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import json</t>
+  </si>
+  <si>
+    <t>cities =[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>print(json.dumps(cities,ensure_ascii=False,indent=2))</t>
+  </si>
+  <si>
+    <t>DBへの保存</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import sqlite3</t>
+  </si>
+  <si>
+    <t>conn = sqlite3.connect('top_cities.db')</t>
+  </si>
+  <si>
+    <t>c = conn.cursor()</t>
+  </si>
+  <si>
+    <t>c.execute('drop table if exists cities')</t>
+  </si>
+  <si>
+    <t>c.execute('create table cities (rank integer,city text,population integer)')</t>
+  </si>
+  <si>
+    <t>c.execute('insert into cities values(?,?,?)',(1,'上海',24150000))</t>
+  </si>
+  <si>
+    <t>c.execute('insert into cities values(:rank,:city,:population)',{'rank':2,'city':'カラチ','population':23550000})</t>
+  </si>
+  <si>
+    <t>c.executemany(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'insert into cities values(:rank,:city,:population)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [{'rank':3,'city':'北京','population':21516000},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'rank':4,'city':'天津','population':147221000},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'rank':5,'city':'イスタンブール','population':14160476},</t>
+  </si>
+  <si>
+    <t>conn.commit();</t>
+  </si>
+  <si>
+    <t>c.execute('select * from cities')</t>
+  </si>
+  <si>
+    <t>for row in c.fetchall():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(row)</t>
+  </si>
+  <si>
+    <t>conn.close()</t>
+  </si>
+  <si>
+    <t>Pythonによるスクレイピングの流れ</t>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import re</t>
+  </si>
+  <si>
+    <t>from urllib.request import urlopen</t>
+  </si>
+  <si>
+    <t>from urllib.request import Request</t>
+  </si>
+  <si>
+    <t>def main():</t>
+  </si>
+  <si>
+    <t>"_x000D_
+		メインの処理_x000D_
+		fetch(),scrape(),save()の3つの関数を呼び出す_x000D_
+	"</t>
+  </si>
+  <si>
+    <t>html = fetch('https://gihyo.jp/dp')</t>
+  </si>
+  <si>
+    <t>books = scrape(html)</t>
+  </si>
+  <si>
+    <t>save('books.db',books)</t>
+  </si>
+  <si>
+    <t>def fetch(url):</t>
+  </si>
+  <si>
+    <t>"_x000D_
+	引数urlで与えられたURLのWebページを取得する_x000D_
+	WebページのエンコーディングはContent-Typeヘッダーから取得する_x000D_
+	戻り値：str型のhtml_x000D_
+    "</t>
+  </si>
+  <si>
+    <t>headers = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "User-Agent": "Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:47.0) Gecko/20100101 Firefox/47.0",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>request = Request(url=url, headers=headers)</t>
+  </si>
+  <si>
+    <t>f = urlopen(request)</t>
+  </si>
+  <si>
+    <t>encoding = f.info().get_content_charset(failobj='utf-8')</t>
+  </si>
+  <si>
+    <t>html = f.read().decode(encoding)</t>
+  </si>
+  <si>
+    <t>return html</t>
+  </si>
+  <si>
+    <t>def scrape(html):</t>
+  </si>
+  <si>
+    <t>"_x000D_
+	引数htmlで与えられたHTMLから正規表現で書籍の情報を取り出す_x000D_
+	戻り値：書籍(dict)のリスト_x000D_
+	"</t>
+  </si>
+  <si>
+    <t>books=[]</t>
+  </si>
+  <si>
+    <t>url = re.search(r'&lt;a itemprop="url" href="(.*?)"&gt;',partial_html).group(1)</t>
+  </si>
+  <si>
+    <t>url = 'https://gihyo.jp'+url</t>
+  </si>
+  <si>
+    <t>title = re.search(r'&lt;p itemprop="name".*?&lt;/p&gt;',partial_html).group(0)</t>
+  </si>
+  <si>
+    <t>title = re.sub(r'&lt;.*?&gt;','',title)</t>
+  </si>
+  <si>
+    <t>title = unescape(title)</t>
+  </si>
+  <si>
+    <t>books.append({'url':url,'title':title})</t>
+  </si>
+  <si>
+    <t>return books</t>
+  </si>
+  <si>
+    <t>def save(db_path,books):</t>
+  </si>
+  <si>
+    <t>"_x000D_
+	引数booksで与えられた書籍のリストをSQLiteデータベースに保存する_x000D_
+	戻り値：なし_x000D_
+	"</t>
+  </si>
+  <si>
+    <t>conn = sqlite3.connect(db_path)</t>
+  </si>
+  <si>
+    <t>c.execute('drop table if exists books')</t>
+  </si>
+  <si>
+    <t>c.execute('create table books(title text,url text)')</t>
+  </si>
+  <si>
+    <t>c.executemany('insert into books values(:title,:url)',books)</t>
+  </si>
+  <si>
+    <t>conn.commit()</t>
+  </si>
+  <si>
+    <t>if __name__ == '__main__':</t>
+  </si>
+  <si>
+    <t>main()</t>
+  </si>
+  <si>
+    <t>流れ</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLのWebページを取得する</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な情報を抜き出す</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果を保存する。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強力なライブラリの活用</t>
+    <rPh sb="0" eb="2">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PythonにはPyPI（Python Package Index)と呼ばれるパッケージの</t>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリがある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pipによるインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyPIで公開されているライブラリのインストールにはpipツールを使用する。</t>
+    <rPh sb="5" eb="7">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$pip install ライブラリ名</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$pip install ライブラリ名==バージョン番号</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pipでは同じライブラリの複数バージョンを共存させることができないため、</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数パージョンを使用したいときは、仮想環境を分けて使用する。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$pip freeze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想環境内にインストールされている全ライブラリのバージョンを確認できる。</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページを簡単に取得する。</t>
+    <rPh sb="7" eb="9">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準ライブラリのurllibに比べてRequestsを使用すると簡単にWebページを取得できる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$pip install requests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意：パスの確認</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;import sys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;sys.path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$pip show requests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name: requests</t>
+  </si>
+  <si>
+    <t>Version: 2.18.4</t>
+  </si>
+  <si>
+    <t>Summary: Python HTTP for Humans.</t>
+  </si>
+  <si>
+    <t>Home-page: http://python-requests.org</t>
+  </si>
+  <si>
+    <t>Author: Kenneth Reitz</t>
+  </si>
+  <si>
+    <t>Author-email: me@kennethreitz.org</t>
+  </si>
+  <si>
+    <t>License: Apache 2.0</t>
+  </si>
+  <si>
+    <t>Location: /usr/lib/python3.5/site-packages</t>
+  </si>
+  <si>
+    <t>Requires: chardet, urllib3, idna, certifi</t>
+  </si>
+  <si>
+    <t>['', '/usr/lib64/python3.5', '/usr/lib64/python3.5/plat-linux', '/usr/lib64/python3.5/lib-dynload', '/home/ec2-user/python/scraping/lib64/python3.5/site-packages', '/home/ec2-user/python/scraping/</t>
+  </si>
+  <si>
+    <t>この結果に上位のパスが設定されていれば問題はない。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>または</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PYTHONPATH環境変数に追加</t>
+    <rPh sb="10" eb="12">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; sys.path.append('/usr/lib/python3.5/site-packages')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import requests</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r=requests.get('https://gihyo.jp/dp')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; type(r)</t>
+  </si>
+  <si>
+    <t>&lt;class 'requests.models.Response'&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r.status_code</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r.headers['content-type']</t>
+  </si>
+  <si>
+    <t>'text/html; charset=UTF-8'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r.encoding</t>
+  </si>
+  <si>
+    <t>'UTF-8'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r.text</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r=requests.get('http://weather.livedoor.com/forecast/webservice/json/v1?city=130010')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; r.json()</t>
+  </si>
+  <si>
+    <t>getだけでなく、POST/PUT/DELETE/HEAD/OPTIONSにも対応</t>
+    <rPh sb="39" eb="41">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPヘッダーの追加、Basic認証などにも対応</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Session、Cookieにも対応</t>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLのスクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lxml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C言語で書かれたXML処理の著名なライブラリであるlibxml2とlibxslt</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のPythonバインディングです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C言語で書かれているため高速だが、非常に多機能のため、初めて</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>タキノウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用する際には戸惑う可能性がある。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トマド</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beautiful Soup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルでわかりやすく、内部のパーサーを目的に応じて切り替える。</t>
+    <rPh sb="12" eb="14">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyquery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jQueryと同様なインタフェースでスクレイピングができる。</t>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピングを行うためのライブラリは多くあるが、まずはlxmlの使い方を覚える。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beautiful Soupやpyqueryなども内部でlxmlを使用している。</t>
+    <rPh sb="25" eb="27">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XpathとCSSセレクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xpathの方が機能が豊富だが、多くの場合はCSSセレクタで簡潔に書けるため</t>
+    <rPh sb="6" eb="7">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウフ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずはCSSセレクタを使用する。</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lxmlとpyqueryでは、cssselectパッケージによってCSSセレクタをXpathに変換して</t>
+    <rPh sb="47" eb="49">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lxmlによるスクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLのパースにはlxml.htmlを使う。</t>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;sys.path.append('/usr/lib/python3.5/site-packages')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import sys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import sys</t>
+  </si>
+  <si>
+    <t>sys.path.append('/usr/lib64/python3.5/site-packages')</t>
+  </si>
+  <si>
+    <t>sys.path.append('/usr/lib/python3.5/site-packages')</t>
+  </si>
+  <si>
+    <t>import lxml.html</t>
+  </si>
+  <si>
+    <t>tree = lxml.html.parse('index.html')</t>
+  </si>
+  <si>
+    <t>html = tree.getroot()</t>
+  </si>
+  <si>
+    <t>for a in html.cssselect('a'):</t>
+  </si>
+  <si>
+    <t>print(a.get('href'),a.text)</t>
   </si>
 </sst>
 </file>
@@ -3662,7 +4630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3671,6 +4639,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5810,10 +6781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P244"/>
+  <dimension ref="A1:Q399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView topLeftCell="A389" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6875,27 +7846,638 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C238" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C240" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C241" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C241" t="s">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C242" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C242" t="s">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C244" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C244" t="s">
-        <v>527</v>
+      <c r="D244" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D246" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D247" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D248" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D249" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C252" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C254" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C255" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="257" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C257" t="s">
+        <v>536</v>
+      </c>
+      <c r="D257" t="s">
+        <v>537</v>
+      </c>
+      <c r="P257" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="259" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D259" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="260" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D260" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="262" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D262" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="263" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D263" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="264" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="Q264" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="265" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D265" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="266" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D266" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="267" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="268" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D268" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="269" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="270" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D270" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="271" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D271" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="272" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D272" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C274" t="s">
+        <v>557</v>
+      </c>
+      <c r="E274" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276" t="s">
+        <v>559</v>
+      </c>
+      <c r="K276" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277" t="s">
+        <v>560</v>
+      </c>
+      <c r="K277" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278" t="s">
+        <v>561</v>
+      </c>
+      <c r="K278" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E279">
+        <v>4</v>
+      </c>
+      <c r="F279" t="s">
+        <v>562</v>
+      </c>
+      <c r="K279" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C283" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C285" t="s">
+        <v>536</v>
+      </c>
+      <c r="D285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D287" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D288" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D289" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D290" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D291" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D292" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D293" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D295" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C299" t="s">
+        <v>536</v>
+      </c>
+      <c r="D299" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D301" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D303" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D305" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D308" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D310" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D312" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D314" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D315" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D316" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D317" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D318" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D319" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D321" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D323" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D325" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D326" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D328" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <v>7</v>
+      </c>
+      <c r="B330" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B332" t="s">
+        <v>536</v>
+      </c>
+      <c r="C332" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C333" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C334" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C335" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C336" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="338" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C338" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="339" spans="3:14" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="D339" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="M339" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="340" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D340" t="s">
+        <v>597</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="341" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D341" t="s">
+        <v>598</v>
+      </c>
+      <c r="M341">
+        <v>2</v>
+      </c>
+      <c r="N341" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="342" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D342" t="s">
+        <v>599</v>
+      </c>
+      <c r="M342">
+        <v>3</v>
+      </c>
+      <c r="N342" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="344" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C344" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="345" spans="3:14" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="D345" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="346" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D346" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="347" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C347" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="348" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C348" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="350" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D350" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="352" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D352" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D355" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="356" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D356" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D358" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="360" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C360" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="361" spans="3:5" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="D361" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="363" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D363" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="365" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D365" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="367" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E367" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="368" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E368" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="370" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E370" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E371" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="372" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E372" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E374" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D376" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="378" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C378" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="379" spans="3:5" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="D379" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="381" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D381" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D383" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D385" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D387" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D389" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D391" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D393" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C396" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D397" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <v>8</v>
+      </c>
+      <c r="B399" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -6906,4 +8488,481 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P400"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C58">
+        <v>200</v>
+      </c>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>685</v>
+      </c>
+      <c r="E76" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E77" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E78" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E83" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E87" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D98" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>705</v>
+      </c>
+      <c r="F104" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F106" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F107" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F109" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F111" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F113" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F115" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C116" s="4"/>
+      <c r="G116" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C118" s="4"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C121" s="7"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D139" s="7"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C155" s="4"/>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K297" s="4"/>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K298" s="4"/>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K299" s="4"/>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K300" s="4"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D360" s="8"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D366" s="8"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D382" s="8"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D400" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
+++ b/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="858">
   <si>
     <t>クローリング（Crawling)</t>
     <phoneticPr fontId="1"/>
@@ -4547,12 +4547,1000 @@
   <si>
     <t>print(a.get('href'),a.text)</t>
   </si>
+  <si>
+    <t>RSSのスクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feedparseを使うと、標準ライブラリのElementTreeよりも標準にRSSフィードから</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピングできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSSフィードには、RSS0.9、RSS1.0、RSS2.0、Atomなどの複数仕様があるが、</t>
+    <rPh sb="38" eb="40">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feedparserはこれらの違いを吸収します。</t>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$pip install feedparser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import feedparser</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d=feedparser.parse('http://b.hatena.ne.jp/hotentry/it.rss')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; type(d)</t>
+  </si>
+  <si>
+    <t>&lt;class 'feedparser.FeedParserDict'&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.version</t>
+  </si>
+  <si>
+    <t>'rss10'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.feed.title</t>
+  </si>
+  <si>
+    <t>'はてなブックマーク - 人気エントリー - テクノロジー'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d['feed']['title']</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.feed.link</t>
+  </si>
+  <si>
+    <t>'http://b.hatena.ne.jp/hotentry/it'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.feed.description</t>
+  </si>
+  <si>
+    <t>'最近の人気エントリー - テクノロジー'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; len(d.entries)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.entries[0].title</t>
+  </si>
+  <si>
+    <t>'アマゾンEchoスピーカーが唐突に笑い出す不具合発生。各地で怯えるユーザー続出 - Engadget 日本版'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.entries[0].link</t>
+  </si>
+  <si>
+    <t>'http://japanese.engadget.com/2018/03/07/echo/'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d.entries[0].description</t>
+  </si>
+  <si>
+    <t>'So Alexa decided to laugh randomly while I was in the kitchen. Freaked @SnootyJuicer and I out. I thought a kid was laughing behind me. pic.twitter.com/6dblzkiQHp ― CaptHandlebar (@CaptHandlebar) Febr...'</t>
+  </si>
+  <si>
+    <t>DBに保存する</t>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBは、RDBとNoSQLの2つに大きく分けることができる。</t>
+    <rPh sb="17" eb="18">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NoSQLはデータの整合性を弱める代わりに、スケーラビリティや読み書きの性能</t>
+    <rPh sb="10" eb="13">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を高めたDBです。</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLへのデータ保存</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・mysqlclientのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yum install python-devel mysql-devel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install mysqclient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→mysql_configがないとエラーになる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→mysql_configバージョン番号の名前でインストールされるので、変更する。</t>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→gccがないとエラーになる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yum install gcc*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yum install gcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sys.path.append('/usr/local/lib64/python3.5/site-packages')</t>
+  </si>
+  <si>
+    <t>sys.path.append('/usr/local/lib/python3.5/site-packages')</t>
+  </si>
+  <si>
+    <t>import MySQLdb</t>
+  </si>
+  <si>
+    <t>conn = MySQLdb.connect(db='scraping',user='scraper',passwd='dnuos1358',charset='utf8mb4')</t>
+  </si>
+  <si>
+    <t>c=conn.cursor()</t>
+  </si>
+  <si>
+    <t>c.execute('create table cities(rank integer,city text, population integer)')</t>
+  </si>
+  <si>
+    <t>c.execute('insert into cities values(%s,%s,%s)',(1,'上海',24150000))</t>
+  </si>
+  <si>
+    <t>c.execute(</t>
+  </si>
+  <si>
+    <t>'insert into cities values(%(rank)s,%(city)s,%(population)s)',</t>
+  </si>
+  <si>
+    <t>{'rank':2,'city':'カラチ','population':23500000}</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>{'rank':3,'city':'北京','population':21516000},</t>
+  </si>
+  <si>
+    <t>{'rank':4,'city':'天津','population':14722100},</t>
+  </si>
+  <si>
+    <t>{'rank':5,'city':'イスタンブル','population':14160467},</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>print(row)</t>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python Database API2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonにおける標準的なRDB APIの仕様</t>
+    <rPh sb="10" eb="13">
+      <t>ヒョウジュンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MongoDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MongoDBは、NoSQLの一種でドキュメント型と呼ばれるDBです。</t>
+    <rPh sb="15" eb="17">
+      <t>イッシュ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柔軟なデータ構造と高い書き込み性能、使いやすさが特徴です。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウナン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MongoDBのデータ構造は階層構造を持つ。１つのDBは複数のコレクションを</t>
+    <rPh sb="11" eb="13">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち、１つのコレクションは複数のドキュメントを持つ。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメントはBSONと呼ばれるJSONのバイナリ版の形式で扱われ、</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonにおけるlistやdictのような複雑なデータ構造を格納できる。</t>
+    <rPh sb="23" eb="25">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前にデータ構造を定義する必要がなく、ドキュメントごとに異なる構造を</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持てます。 これはページによって掲載されているデータ項目が異なる場合に</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役立ちます。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDBに比べてデータの書き込み性能が高い点も、スクレイピング結果を保存</t>
+    <rPh sb="4" eb="5">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するのに向いています。 大量のページを同時並行してクローリング・スクレイピング</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すると、DBへの書き込みがボトルネックとなる場合があるからです。</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSへのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo yum update -y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo vim /etc/yum.repos.d/mongodb-org-3.2.repo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[mongodb-org-3.2]</t>
+  </si>
+  <si>
+    <t>name=MongoDB Repository</t>
+  </si>
+  <si>
+    <t>baseurl=https://repo.mongodb.org/yum/amazon/2013.03/mongodb-org/3.2/x86_64/</t>
+  </si>
+  <si>
+    <t>gpgcheck=1</t>
+  </si>
+  <si>
+    <t>enabled=1</t>
+  </si>
+  <si>
+    <t>gpgkey=https://www.mongodb.org/static/pgp/server-3.2.asc</t>
+  </si>
+  <si>
+    <t>sudo yum install -y mongodb-org</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo service mongod start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo chkconfig mongod on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PythonからMongoDBに接続する</t>
+    <rPh sb="16" eb="18">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PythonからMongoDBに接続するには、MongoDB公式のPython</t>
+    <rPh sb="16" eb="18">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バインディングであるPyMongoを使う。</t>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from pymongo import MongoClient</t>
+  </si>
+  <si>
+    <t>tree=lxml.html.parse('index.html')</t>
+  </si>
+  <si>
+    <t>html=tree.getroot()</t>
+  </si>
+  <si>
+    <t>client=MongoClient('localhost',27017)</t>
+  </si>
+  <si>
+    <t>db=client.scraping</t>
+  </si>
+  <si>
+    <t>collection=db.links</t>
+  </si>
+  <si>
+    <t>collection.delete_many({})</t>
+  </si>
+  <si>
+    <t>collection.insert_one({</t>
+  </si>
+  <si>
+    <t>'url':a.get('href'),</t>
+  </si>
+  <si>
+    <t>'title':a.text</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>for link in collection.find().sort('_id'):</t>
+  </si>
+  <si>
+    <t>print(link['_id'],link['url'],link['title'])</t>
+  </si>
+  <si>
+    <t>クローラーとURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここからはライブラリを活用してPythonでクローラーを作ります。 クローラーはWeb</t>
+    <rPh sb="11" eb="13">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに存在するハイパーリンクをたどっていく必要があります。</t>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLの基礎知識</t>
+    <rPh sb="4" eb="6">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーでリンクをたどるには、リンクを表すaタグのhref属性から次のページの</t>
+    <rPh sb="20" eb="21">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLを取得します。 このとき得られたURLが相対URLの場合は絶対URLに変換する</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://example.com/main/index?q=python#lead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーソリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスト名を表すが、ユーザー名やパスワード、ポート番号を</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含む場合がある。</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/で始まり、そのホストにおけるリソースのパスを表す</t>
+    <rPh sb="2" eb="3">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?の後に接ぎ木、パスとは異なる部分でリソースを指定するために</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使われる。 省略可能。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#の後に続き、リソース内の特定の部分などを表す。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略可能。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対URLと相対URL</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対URLは、http://で始まる。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相対URL</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//で始まる相対URL</t>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/で始まる相対URL</t>
+    <rPh sb="2" eb="3">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以外の相対パス系漆器の相対URL</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相対URLから絶対URLへの変換</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from urllib.parse import urljoin</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base_url='http://example.com/books/top.html'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; urljoin(base_url,'//cdn.example.com/logo.php')</t>
+  </si>
+  <si>
+    <t>'http://cdn.example.com/logo.php'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; urljoin(base_url,'/articles/')</t>
+  </si>
+  <si>
+    <t>'http://example.com/articles/'</t>
+  </si>
+  <si>
+    <t>パーマリンクとリンク構造のパターン</t>
+    <rPh sb="10" eb="12">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーマリンクは本の詳細情報のように時間がたっても対応するコンテンツが</t>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変わらないURLをいう。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧・詳細パターンは商品の一覧ページから商品の詳細ページに遷移するような</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトのリンク構造のことをいう。</t>
+    <rPh sb="7" eb="9">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonによるクローラーの作成</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RequestsでWebページを取得</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lxmlでWebページからスクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyMongoでMongoDBにデータを保存</t>
+    <rPh sb="20" eb="22">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4608,6 +5596,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4630,7 +5626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4642,6 +5638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -8492,10 +9489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P400"/>
+  <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8621,348 +9618,1233 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C36" s="7" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C58">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58">
         <v>200</v>
       </c>
-      <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>3</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>685</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E83" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C85" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E87" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D87" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C89" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C90" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C92">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D94" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D95" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D97" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D98" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C100">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B100">
         <v>2</v>
       </c>
-      <c r="D100" t="s">
+      <c r="C100" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D102" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D104" t="s">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
         <v>705</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E104" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F106" t="s">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E106" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F107" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E107" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F109" t="s">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E109" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F111" t="s">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E111" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F113" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E113" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F115" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E115" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C116" s="4"/>
-      <c r="G116" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="4"/>
+      <c r="F116" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C118" s="4"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C121" s="7"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D139" s="7"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C155" s="4"/>
-    </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K297" s="4"/>
-    </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K298" s="4"/>
-    </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K299" s="4"/>
-    </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K300" s="4"/>
-    </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D360" s="8"/>
-    </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D366" s="8"/>
-    </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D382" s="8"/>
-    </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D400" s="8"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>730</v>
+      </c>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B155" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D163" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D165" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D167" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C170" t="s">
+        <v>753</v>
+      </c>
+      <c r="D170" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D172" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D175" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D177" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D179" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D181" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D183" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D185" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D187" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D189" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E190" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E191" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D192" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D194" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E195" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E196" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F197" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F198" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F199" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E200" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D201" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D204" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D206" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D208" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E209" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D211" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B213" t="s">
+        <v>771</v>
+      </c>
+      <c r="D213" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D215" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C219" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C220" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C222" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C223" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C226" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C228" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C229" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C230" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C232" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C233" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C234" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C236" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C238" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C240" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D242" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D243" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D244" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D245" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D246" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D247" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C249" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C251" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C253" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D257" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D258" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C260" t="s">
+        <v>753</v>
+      </c>
+      <c r="D260" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D262" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D263" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D264" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D265" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D272" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D273" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="275" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D275" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="277" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D277" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D279" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="281" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D281" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="283" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D283" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="284" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E284" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="285" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F285" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="286" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F286" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="287" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E287" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D289" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E290" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B294" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B295" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J298" s="4"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C299" t="s">
+        <v>819</v>
+      </c>
+      <c r="J299" s="4"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C300" t="s">
+        <v>820</v>
+      </c>
+      <c r="J300" s="4"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C301" t="s">
+        <v>821</v>
+      </c>
+      <c r="J301" s="4"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C303" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="305" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>823</v>
+      </c>
+      <c r="H305" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>824</v>
+      </c>
+      <c r="H306" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="307" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H307" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="308" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308" t="s">
+        <v>825</v>
+      </c>
+      <c r="H308" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="309" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>826</v>
+      </c>
+      <c r="H309" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H310" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311" t="s">
+        <v>827</v>
+      </c>
+      <c r="H311" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="312" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H312" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="314" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C314" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="316" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D316" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="318" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D318" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="319" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="320" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D321">
+        <v>3</v>
+      </c>
+      <c r="E321" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C323" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D325" t="s">
+        <v>753</v>
+      </c>
+      <c r="E325" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E326" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E327" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E328" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E329" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E330" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E331" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C335" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C336" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C338" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C339" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <v>7</v>
+      </c>
+      <c r="B341" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D363" s="8"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D369" s="8"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D385" s="8"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D403" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C303" r:id="rId1" location="lead"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
+++ b/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
     <sheet name="第三章" sheetId="3" r:id="rId3"/>
+    <sheet name="第四章" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="873">
   <si>
     <t>クローリング（Crawling)</t>
     <phoneticPr fontId="1"/>
@@ -5532,6 +5533,171 @@
     <t>PyMongoでMongoDBにデータを保存</t>
     <rPh sb="20" eb="22">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実用のためのメソッド</t>
+    <rPh sb="0" eb="2">
+      <t>ジツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のWebサイトを対象としてクローラーを実行する前に、押さえておくべき注意点や</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>チュウイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計方法があります。</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーの分類</t>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーといっても、対象となるWebサイトによってその性質は様々です。</t>
+    <rPh sb="11" eb="13">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイシツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サマザマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーの分類を知っておくことで、クロール対象のWebサイトに合わせて適切な</t>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーを作成できるようになるでしょう。</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次の３つの軸でクローラーは分類できます。 </t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態を持つかどうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptを解釈するかどうか。</t>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不特定多数のサイトを対象とするかどうか。</t>
+    <rPh sb="0" eb="3">
+      <t>フトクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態を持つかどうかによる分類</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態を持つ（ステートフルな）クローラー</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態を持たない（ステートレスな）クローラー</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9491,7 +9657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A330" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
@@ -10847,4 +11013,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>866</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D20" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>870</v>
+      </c>
+      <c r="D21" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D54" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
+++ b/Python/クローリング＆スクレイピング/クローリング＆スクレイピング.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="第三章" sheetId="3" r:id="rId3"/>
     <sheet name="第四章" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1199">
   <si>
     <t>クローリング（Crawling)</t>
     <phoneticPr fontId="1"/>
@@ -5698,6 +5698,3327 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CookeiはHTTPリクエスト・レスポンスに小さなデータを付加して送受信する</t>
+    <rPh sb="23" eb="24">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕組みです。 サーバーがHTTPレスポンスのSet-Cookieヘッダーで値を送信すると、</t>
+    <rPh sb="0" eb="2">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントはその値を保存します。クライアントが次回以降そのWebサイトにHTTP</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストを送る際は、保存しておいた値をCookieヘッダーで送ります。</t>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーが利用者一人一人に異なるデータを送ることで、利用者を識別できます。</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーを作成するにあたっては、Coookieの送受信を必ずしも実装する必要は</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありいませんが、ログインが必要なWebサイトをクロールするにはCookieに対応する</t>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、すなわち状態を持つクローラーを作成する必要があります。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Requestsでは、Sessionオブジェクトを使うと、サーバーから受信したCookeiを次回以降</t>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のリクエストで自動的に送信できます。</t>
+    <rPh sb="7" eb="10">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPで状態を表現するための別の手段として、Refere(リファラー）があります。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refererは１つ前に閲覧したページ（リンク元のページ）のURLをサーバーに送る</t>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ためのHTTPヘッダーです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトによって、このRefererの値によってリクエストを許可するかどうかを判断する</t>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことがあります。 例えば画像ファイルへのリクエストで、Refererの値が同一サイト内の</t>
+    <rPh sb="9" eb="10">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLである場合のみ許可するなどがあります。 この場合、通常のブラウザーと同様に</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像のリンク元のページのURLをRefererヘッダーとして送る必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptを解釈するかどうかによる分類</t>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptを解釈するクローラー</t>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptを解釈しないクローラー</t>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptは、Single Page Application(SPA)など、今日の多くのWebで利用されている。</t>
+    <rPh sb="43" eb="45">
+      <t>コンニチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このようなWebサイトをクロールするには、JavaScriptを解釈する必要があります。</t>
+    <rPh sb="32" eb="34">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScriptを解釈するクローラーを作成するには、Seleniumを利用しましょう。 </t>
+    <rPh sb="11" eb="13">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seleniumはプログラムからブラウザーを自動操作するツールです。</t>
+    <rPh sb="22" eb="24">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Selenimuを利用すれば、通常のブラウザだけでなく、ヘッドレスブラウザーと呼ばれる</t>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を持たないブラウザーも自動操作できます。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Selenimuから使えるヘッドレスブラウザーとしては、PhantomJSが有名です。</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ユウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本書では、PhantomJSをSelenium経由で使い、PythonでJavaScriptを解釈する</t>
+    <rPh sb="0" eb="2">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーを作成します。</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不特定多数のサイトを対象とするかどうかによる分類</t>
+    <rPh sb="0" eb="3">
+      <t>フトクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール対象のサイトが不特定多数かどうかでクローラーを分類すると、次の２つに</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フトクテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類できる。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のWebサイトだけを対象とするクローラー</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不特定多数のWebサイトを対象とするクローラー</t>
+    <rPh sb="0" eb="3">
+      <t>フトクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラー作成にあたっての注意</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーの作成に当たって、著作権を侵害したり、クロール先のWebサイトに迷惑を</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンガイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>メイワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけたりしないために注意すべき点があります。</t>
+    <rPh sb="10" eb="12">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適切なクロール感覚を開けること、連絡先を明示すること、適切なエラー処理を行うこと</t>
+    <rPh sb="0" eb="2">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>などを守るようにしましょう。</t>
+    <rPh sb="3" eb="4">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著作権と利用規約</t>
+    <rPh sb="0" eb="3">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著作物の要件「思想又は感情を創作的に表現したものであって、文芸、学術、美術</t>
+    <rPh sb="0" eb="3">
+      <t>チョサクブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ソウサクテキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブンゲイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガクジュツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ビジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>又は音楽の班に属するもの」を満たすもは、著作権法によって保護されます。この</t>
+    <rPh sb="0" eb="1">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>チョサクケンホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件はわかりにくいですが、Webページは基本的に著作物だと考えておいて良い。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>チョサクブツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著作権法では、著作物の利用を許諾したり禁止したりする権利として、著作権（</t>
+    <rPh sb="0" eb="4">
+      <t>チョサクケンホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>チョサクブツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンリ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>チョサクケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財産権)が著作権者に認められています。</t>
+    <rPh sb="0" eb="3">
+      <t>ザイサンケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特にクローラーの作成において問題になるのは、次の3つの権利でしょう。</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複製権：収集したWebページを保存する権利</t>
+    <rPh sb="0" eb="3">
+      <t>フクセイケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翻案権：収集したWebページから新たな著作物を想像する権利</t>
+    <rPh sb="0" eb="2">
+      <t>ホンアン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>チョサクブツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公衆送信権：収集したWebページをサーバーから公開する権利</t>
+    <rPh sb="0" eb="2">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらの行為には基本的に著作権者の許諾が必要ですが、私的使用の範囲内の</t>
+    <rPh sb="4" eb="6">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複製など、使用目的によっては著作権者の許諾なく自由に行うことが認められて</t>
+    <rPh sb="0" eb="2">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>います。さらに2009年の著作権法改正によって、情報解析を目的とした複製や</t>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ホウカイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索エンジンサービスの提供を目的とした複製・翻案・自動公衆送信が、著作権者</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホンアン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の許諾なく行えるようになりました。</t>
+    <rPh sb="1" eb="3">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、これらの利用については一定の条件があるため注意が必要ですが。特に</t>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索エンジンサービスを目的としたクロールにおいては、以下のように細かく条件が</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定められているため、詳しくは著作権法第47条の6や関連する政令等を参照して</t>
+    <rPh sb="0" eb="1">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>チョサクケンホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員のみが閲覧可能なサイトのクロールには著作権者の許諾が必要なこと</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robots.txtやrobots metaタグで拒否されているページをクロールしないこと</t>
+    <rPh sb="25" eb="27">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール下後に拒否されたことが分かった場合は、保存済みの著作権物を</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消去すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果では元のWebページにリンクすること</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果として表示する著作物は必要と認められる限度内であること</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>チョサクブツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>違法コンテンツであることを知った場合は公衆送信をやめること</t>
+    <rPh sb="0" eb="2">
+      <t>イホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著作権以外に気を付けるべき点としては、Webサイトの利用規約があります。</t>
+    <rPh sb="0" eb="3">
+      <t>チョサクケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトによっては、利用規約でクローリングが明示的に禁止されている場合が</t>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robots.txtによるクローラーへの指示</t>
+    <rPh sb="20" eb="22">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robots.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robotx.txtの中身は、Robots Exclusion Protocolとして標準化されており、</t>
+    <rPh sb="11" eb="13">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleやBingなど主要な検索エンジンのクローラーはこの標準に従っている</t>
+    <rPh sb="13" eb="15">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と表明しています。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-Agent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disallow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Allow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sitemap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crawl-delay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降のディレクティブの対象となるクローラーを表す。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロールを禁止するパスを表す。</t>
+    <rPh sb="5" eb="7">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロールを許可するパスを表す。</t>
+    <rPh sb="5" eb="7">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLサイトマップのURLを表す。</t>
+    <rPh sb="14" eb="15">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール間隔を表す。</t>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-agent:*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disallow:/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのクローラーに対して、</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのページのクロールを許可しない。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disallow:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのページのクロールを許可する。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-agent:*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disallow:/old/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disallow:/tmp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-agent:annoying-bot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-Agentヘッダーにannoying-botという文字列を</t>
+    <rPh sb="30" eb="33">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含むクローラーはスぺのページのクロールを禁止し、</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他のクローラーは/old/と/tmp/以下のみ禁止</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するという意味になります。</t>
+    <rPh sb="5" eb="7">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Allow:/articles/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/articles/以下のパスは許可するが、</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のパスは全て許可しないという意味になります。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robots.txtのパース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonの標準ライブラリのurllib.robotparserには、robots.txtをパースするための</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RobotFileParserクラスが含まれています。</t>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import urllib.robotparser</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; rp = urllib.robotparser.RobotFileParser()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; rp.set_url('http://gihyo.jp/robots.txt')</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; rp.read()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; rp.can_fetch('mybot','http://gihyo.jp/')</t>
+  </si>
+  <si>
+    <t>#set_url()でrobots.txtのURLを設定する。</t>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#read()でrobots.txtを読み込む。</t>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># can_fetch()の引数（User-Agentの文字列、対象のURL）</t>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#対象のクロールが許可されているかどうかを取得できる。</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Allowディレクティブの扱いは実装によって異なるため注意が必要です。</t>
+    <rPh sb="13" eb="14">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python標準ライブラリのRobotFileParserクラスは、Allowディレクティブも</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disallowディレクティブも一緒に上から順に評価し、最初にパスがマッチ</t>
+    <rPh sb="16" eb="18">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するものを採用します。 一方で、Google検索エンジンのクローラーである</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googlebotは、基本的にパスが長いディレクティブから順に評価し、最初に</t>
+    <rPh sb="11" eb="14">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチするものを採用します。</t>
+    <rPh sb="8" eb="10">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robots metaタブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLのmetaタグにクローラーへの指示が記述されます。</t>
+    <rPh sb="19" eb="21">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;meta name="robots" content="noindex"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content属性に使用される値としては、次のものがあります。</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンマで区切って複数の値が指定されることもあります。</t>
+    <rPh sb="4" eb="6">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noarchive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nofollow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページ内のリンクをたどることを許可しない。</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページをアーカイブとして保存することを許可しない</t>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noindex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページを検索エンジンにインデックスすることを許可しない</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robot.txtやrobots metaタグは、拘束力のない紳士協定です。これらの指示に従う</t>
+    <rPh sb="25" eb="28">
+      <t>コウソクリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キョウテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かどうかは、クローラー作成者が決められます。 ですが、相手のWebサイトに迷惑を</t>
+    <rPh sb="11" eb="14">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>メイワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛けないようにするため、クローラーを作成する際には、これらの指示に従うべきです。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLサイトマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLサイトマップは、WebサイトがクローラーにしてクロールしてほしいURLのリストを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提示するためのXMLファイルです。</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLサイトマップにはWebサイトがクロールを望むページのURLが全て列挙されます。</t>
+    <rPh sb="23" eb="24">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLサイトマップを参照してクロールすると、クロールが必要なページ数が少なくて</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すむので効率的です。 XMLサイトマップはWebサイトの構造を知らせるために設ける</t>
+    <rPh sb="4" eb="7">
+      <t>コウリツテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトマップとは別物です。</t>
+    <rPh sb="8" eb="10">
+      <t>ベツモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;urlset xmlns="http://www.google.com/schemas/sitemap/0.84" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xsi:schemaLocation="http://www.google.com/schemas/sitemap/0.84 http://www.google.com/schemas/sitemap/0.84/sitemap.xsd"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script id="tinyhippos-injected"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;url&gt;</t>
+  </si>
+  <si>
+    <t>&lt;loc&gt;http://gihyo.jp/&lt;/loc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;priority&gt;0.9&lt;/priority&gt;</t>
+  </si>
+  <si>
+    <t>&lt;changefreq&gt;always&lt;/changefreq&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大規模なサイトのXMLサイトマップはファイルサイズが大きくなるので、gzip圧縮される</t>
+    <rPh sb="0" eb="3">
+      <t>ダイキボ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことも多い。１つのXMLサイトマップは10MB以内、かつ含まれるURLが50,0000個以内</t>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とされており、この制限を超える場合は複数のサイトマップに分割されます。 この時、</t>
+    <rPh sb="9" eb="11">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分割した複数のサイトマップのURLをクローラーに知らせるために、サイトマップ</t>
+    <rPh sb="0" eb="2">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックスが使われる場合もあります。 サイトマップインデックスは、複数のサイト</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのURLを含むXMLファイルです。</t>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sitemapindex xmlns="http://www.sitemaps.org/schemas/sitemap/0.9"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;sitemap&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;loc&gt;http://www.example.com/sitemap1.xml&lt;/loc&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/sitemap&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/sitemapindex&gt; </t>
+  </si>
+  <si>
+    <t>XMLサイトマップまたはサイトマップインデックスのURLは、robots.txtのSitemap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクティブに記述されます。</t>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール先の負荷</t>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず考慮すべき点として、同時接続数があります。 最近のブラウザは、１ホスト</t>
+    <rPh sb="2" eb="4">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あたり最大６の同時接続を張ると言われていますが、クローラーの同時接続数</t>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はこれよりも減らすべきでしょう。</t>
+    <rPh sb="6" eb="7">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firefoxの同時接続数の変更</t>
+    <rPh sb="8" eb="10">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLにabout:configと入力する。</t>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告が出るが処理を継続する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max-persistent-connections-per-serverの値を初期値の６から変更する。</t>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromeはできない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール間隔についても考慮が必要です。 慣例としてはクロールの間には1秒以上の</t>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンレイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ビョウイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェイトを入れることが望ましいでしょう。</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robots.txtのCrawl-delayディレクティブでは、Webサイトがクローラーに守って欲しい</t>
+    <rPh sb="45" eb="46">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール間隔を提示できます。</t>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSSやXMLサイトマップなど、HTMLを取得する以外の手段が存在する場合は、なるべく</t>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その手段を利用しましょう。</t>
+    <rPh sb="2" eb="4">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、一度クロールしたページはキャッシュし、一定の時間内は同じページをクロール</t>
+    <rPh sb="3" eb="5">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しないようにすることで負荷を軽減できます。</t>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先の明示</t>
+    <rPh sb="0" eb="3">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先を明示する手段として、クローラーのUser-Agentヘッダーに連絡先のURLや</t>
+    <rPh sb="0" eb="3">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスを書く方法があります。　HTTPのUser-Agentヘッダーには任意の文字列</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を記入でき、Webサーバーのアクセスログの一部として記録されることが多い為、サーバー</t>
+    <rPh sb="1" eb="3">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者がアクセスログを見て連絡を取ることができます。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスコードとエラー処理</t>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP通信におけるエラーの分類</t>
+    <rPh sb="4" eb="6">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークレベルのエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPレベルのエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが発生した際の対処方法は、時間をおいてリトライするか、そのページを単に</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諦めるかです。</t>
+    <rPh sb="0" eb="1">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonによるエラー処理</t>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>import requests</t>
+  </si>
+  <si>
+    <t>#一時的なエラーを表すすてーたさうコード</t>
+  </si>
+  <si>
+    <t>TEMPORARY_ERROR_CODES=(408,500,502,503,504)</t>
+  </si>
+  <si>
+    <t>"_x000D_
+	メイン_x000D_
+	"</t>
+  </si>
+  <si>
+    <t>response=fetch('http://httpbin.org/status/200,404,503')</t>
+  </si>
+  <si>
+    <t>if 200 &lt;= response.status_code &lt;300:</t>
+  </si>
+  <si>
+    <t>print('Success!')</t>
+  </si>
+  <si>
+    <t>else:</t>
+  </si>
+  <si>
+    <t>print('Error!')</t>
+  </si>
+  <si>
+    <t>"_x000D_
+	指定したURLを取得してResponseオブジェクトを返す。_x000D_
+	一時的なエラーが起きた場合は最大３回リトライをする_x000D_
+	"</t>
+  </si>
+  <si>
+    <t>#最大リトライ回数</t>
+  </si>
+  <si>
+    <t>max_retries=3</t>
+  </si>
+  <si>
+    <t>#現在のリトライ回数</t>
+  </si>
+  <si>
+    <t>retries=0</t>
+  </si>
+  <si>
+    <t>while True:</t>
+  </si>
+  <si>
+    <t>try:</t>
+  </si>
+  <si>
+    <t>print('Retrieving{0}...'.format(url))</t>
+  </si>
+  <si>
+    <t>response=requests.get(url)</t>
+  </si>
+  <si>
+    <t>print('Status:{0}'.format(response.status_code))</t>
+  </si>
+  <si>
+    <t>if response.status_code not in TEMPORARY_ERROR_CODES:</t>
+  </si>
+  <si>
+    <t>return response</t>
+  </si>
+  <si>
+    <t>except requests.exceptoins.RequestException as ex:</t>
+  </si>
+  <si>
+    <t>print('Exception occured: {0}'.format(ex))</t>
+  </si>
+  <si>
+    <t>retries +=1</t>
+  </si>
+  <si>
+    <t>if retries &gt;= max_retries:</t>
+  </si>
+  <si>
+    <t>raise Exception('Too many retries.')</t>
+  </si>
+  <si>
+    <t>wait = 2**(retries-1)</t>
+  </si>
+  <si>
+    <t>print('Waiting {0} seconds...'.format(wait))</t>
+  </si>
+  <si>
+    <t>time.sleep(wait)</t>
+  </si>
+  <si>
+    <t>リトライ処理は定型的な記述が多いので、ライブラリで記述を省略できます。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テイケイテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retryingは、関数に@retryデコレーターを付加することで、リトライ処理を簡潔に</t>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書けるライブラリです。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sys.path.append('/usr/local/lib/python2.7/site-packages')</t>
+  </si>
+  <si>
+    <t>sys.path.append('/usr/lib/python2.7/dist-packages')</t>
+  </si>
+  <si>
+    <t>from retrying import retry</t>
+  </si>
+  <si>
+    <t>#stop_max_attempt_numberは最大リトライ回数を指定する</t>
+  </si>
+  <si>
+    <t>#wait_exponential_multiplierは指数関数的なウェイトを取る場合の、</t>
+  </si>
+  <si>
+    <t># 初回のウェイトをミリ秒単位で指定する。</t>
+  </si>
+  <si>
+    <t>@retry(stop_max_attempt_number=3,wait_exponential_multiplier=1000)</t>
+  </si>
+  <si>
+    <t>"_x000D_
+	指定したURLを取得してResponseオブジェクトを返す_x000D_
+	一時的なエラーが起きた場合は最大3回リトライする。_x000D_
+	"</t>
+  </si>
+  <si>
+    <t>raise Exception('Temporary Error:{0}'.format(response.status_code))</t>
+  </si>
+  <si>
+    <t>繰り返しの実行を前提とした設計</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し実行を念頭において作成することが重要になる。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネントウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新されたデータだけを取得できるようにするため</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーなどで停止した後に途中から再開できるようにするため</t>
+    <rPh sb="6" eb="8">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し実行できるようにするためには、どうすればよいか。 クロール済みのURLから</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したキーをDBに保存していれば、キーが存在しない場合のみクロールできます。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ、クロール済みのWebページが更新されたときに再度クロールしたい場合は、もう</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し複雑な処理が必要です。 クローラーを繰り返し実行することを念頭に置き、更新された</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ネントウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データだけを取得する方法を解説します。</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新されたデータだけを取得する</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新されたデータだけを取得するための単純な方法としては、クロール時にその日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を保存しておき、一定時間経過したら再度クロールするというものがあります。</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうすることで、最近アクセスしていないページのみをクロールできます。</t>
+    <rPh sb="8" eb="10">
+      <t>サイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、Webサイトの更新頻度は異なるため、HTTPのキャッシュポリシーに従うと良い</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFC7234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Last-Modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cache-Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pragma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Expires</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツの最終日時を表す</t>
+    <rPh sb="6" eb="8">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツの識別子を表す。コンテンツが変わるとETagも変わる。</t>
+    <rPh sb="6" eb="9">
+      <t>シキベツシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツをキャッシュしても良いかなど、キャッシュ方針を支持する。</t>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cache-Controlと似たものだったが、現在では後方支援のためだけに残されている。</t>
+    <rPh sb="14" eb="15">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツの有効期限を示す。</t>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらのヘッダーをライブラリを使って処理します。</t>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロール先の変化に対応する</t>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーを運用していく上では、変化への対応が必要不可欠です。継続的にクローラーを</t>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フカケツ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ケイゾクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行していると、リニューアルなどWebサイトの構造が変化し、データが取得できなくなって</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しまうことがしばしばあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラー側でいち早く変化を検知して通知することで、人間がプログラムを書き換え、</t>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトの変化に対応できます。 変化を検知する方法と、変化が起きた場合に通知</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>する方法を解説します。</t>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化を検知する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローラーで取得したWebページからCSSセレクタやXpathで要素を取得して、存在</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するはずの要素が存在しない場合、変化が起きたと判断できます。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールなどで通知してから、クローラーを終了し、人間がページの変化を確認します。</t>
+    <rPh sb="6" eb="8">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from cachecontrol import CacheControl</t>
+  </si>
+  <si>
+    <t>session = requests.session()</t>
+  </si>
+  <si>
+    <t>#sessionをラップ下cached_sessionを作る。</t>
+  </si>
+  <si>
+    <t>cached_session = CacheControl(session)</t>
+  </si>
+  <si>
+    <t>#一回目はキャッシュがないので、サーバーから取得しキャッシュする</t>
+  </si>
+  <si>
+    <t>response = cached_session.get('http://gihyo.jp/')</t>
+  </si>
+  <si>
+    <t>print(response.from_cache)</t>
+  </si>
+  <si>
+    <t>#二回目はETagとLast-Modifiedの値を使って更新されているかを確認する。</t>
+  </si>
+  <si>
+    <t>#更新されていない場合のコンテンツはキャッシュから取得するので高速に処理できる</t>
+  </si>
+  <si>
+    <t>value = '3,000'</t>
+  </si>
+  <si>
+    <t>if not re.search(r'^[0-9,]+$',value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    raise ValueError('invalid price')</t>
+  </si>
+  <si>
+    <t>バリデーションのためのライブラリを使うのが有効です。このためのライブラリは</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数多くあり、デファクトスタンダードがないですが、ここではVoluptuousを紹介します。</t>
+    <rPh sb="0" eb="2">
+      <t>カズオオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VoluptuousはPythonの基本的なデータ型に対して、シンプルにスキーマ（ルール集合）</t>
+    <rPh sb="18" eb="21">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を定義できるライブラリです。</t>
+    <rPh sb="1" eb="3">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from voluptuous import Schema,Match</t>
+  </si>
+  <si>
+    <t>schema = Schema({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                #ルール１:オブジェクトはdictである。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                #ルール２:nameの値は文字列である。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                'name':str,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                #ルール３:priceの値は正規表現にマッチする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                'price':Match(r'^[0-9,]+$'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                #ルール４：dictのキーは必須である。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                },required=True)</t>
+  </si>
+  <si>
+    <t>schema({</t>
+  </si>
+  <si>
+    <t>'name':'ぶどう',</t>
+  </si>
+  <si>
+    <t>'price':'3,000',</t>
+  </si>
+  <si>
+    <t>'name':'test',</t>
+  </si>
+  <si>
+    <t>'price':'A,000',</t>
+  </si>
+  <si>
+    <t>#スキーマに鄭号しないので、例外MultipleInvalid</t>
+    <rPh sb="6" eb="7">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が発生する。</t>
+    <rPh sb="1" eb="3">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　このように変化を検知出来たら、メールなどで通知し、クローラーを終了します。</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化を通知する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇Pythonからメールを送信する。</t>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonからメールを送信するには、標準ライブラリのemailモジュールとsmtplibモジュールを</t>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使います。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import smtplib</t>
+  </si>
+  <si>
+    <t>from email.mime.text import MIMEText</t>
+  </si>
+  <si>
+    <t>from email.header import Header</t>
+  </si>
+  <si>
+    <t>msg = MIMEText('メールの本文です。')</t>
+  </si>
+  <si>
+    <t>msg['Subject'] = Header('メールの件名','utf-8')</t>
+  </si>
+  <si>
+    <t>msg['From'] = 'me@example.com'</t>
+  </si>
+  <si>
+    <t>msg['To'] = 'you@example.com'</t>
+  </si>
+  <si>
+    <t>with smtplib.SMTP('localhost') as smtp:</t>
+  </si>
+  <si>
+    <t>smtp.send_message(msg)</t>
+  </si>
+  <si>
+    <t>GmailのSMTPサーバーなどを使用しないとメールを送信できない。　GmailのSMTPサーバー</t>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ではTLS/SSLの使用が必須のため、SMTPの代わりに、SMTP_SSLクラスを使用する。</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GmailのSMTPサーバーからメールを送信するには認証が必要になる。</t>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名・パスワードによる認証</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OAuth2.0による認証（認可サーバーによるアクセストークンの発行）</t>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleアカウントで2段階認証を設定していない場合は、Googleアカウントのセキュリティの設定</t>
+    <rPh sb="13" eb="15">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で「安全性に低いアプリの許可」を有効にする必要がある。</t>
+    <rPh sb="2" eb="5">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7946,8 +11267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q399"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B401" sqref="B401"/>
+    <sheetView topLeftCell="A194" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11016,11 +14337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C519" sqref="C519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11101,6 +14422,7 @@
         <v>869</v>
       </c>
     </row>
+    <row r="19" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>870</v>
@@ -11117,15 +14439,2022 @@
         <v>872</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D36" s="8"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>895</v>
+      </c>
       <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C100" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D121" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
+        <v>946</v>
+      </c>
+      <c r="H124" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D125" t="s">
+        <v>947</v>
+      </c>
+      <c r="H125" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D126" t="s">
+        <v>948</v>
+      </c>
+      <c r="H126" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D127" t="s">
+        <v>949</v>
+      </c>
+      <c r="H127" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D128" t="s">
+        <v>950</v>
+      </c>
+      <c r="H128" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="130" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D130" t="s">
+        <v>956</v>
+      </c>
+      <c r="E130" t="s">
+        <v>957</v>
+      </c>
+      <c r="I130" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="131" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E131" t="s">
+        <v>958</v>
+      </c>
+      <c r="I131" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="133" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E133" t="s">
+        <v>957</v>
+      </c>
+      <c r="I133" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="134" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E134" t="s">
+        <v>961</v>
+      </c>
+      <c r="I134" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="136" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E136" t="s">
+        <v>963</v>
+      </c>
+      <c r="L136" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="137" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E137" t="s">
+        <v>964</v>
+      </c>
+      <c r="L137" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="138" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E138" t="s">
+        <v>965</v>
+      </c>
+      <c r="L138" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="139" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E139" t="s">
+        <v>966</v>
+      </c>
+      <c r="L139" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="141" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E141" t="s">
+        <v>963</v>
+      </c>
+      <c r="J141" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="142" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E142" t="s">
+        <v>971</v>
+      </c>
+      <c r="J142" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="143" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E143" t="s">
+        <v>958</v>
+      </c>
+      <c r="J143" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D147" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D148" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D150" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D151" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D152" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D153" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D154" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D155" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D156" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D157" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D158" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
+        <v>986</v>
+      </c>
+      <c r="F160" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F161" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F162" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F163" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F164" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F165" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D169" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D171" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>999</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>998</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C180" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C181" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D194" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D195" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E196" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E197" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E198" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D199" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D200" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C202" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C204" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C205" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C209" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C210" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C211" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C212" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C213" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C214" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C216" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C217" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C221" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C222" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C223" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E231" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C233" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C234" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C235" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C236" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C238" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C239" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C241" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C242" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C246" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C247" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C248" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C249" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C253" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C257" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C258" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C260" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D262" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D264" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D266" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D268" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D271" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D273" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D274" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="277" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D277" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="278" spans="4:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E278" s="8" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E279" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="281" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E281" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="282" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F282" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="283" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E283" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="284" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F284" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="286" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D286" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="287" spans="4:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="E287" s="8" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="288" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E288" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="289" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E289" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="291" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E291" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="292" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E292" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="294" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E294" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="295" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F295" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="296" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G296" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G297" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="298" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G298" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="300" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G300" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="301" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H301" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="303" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F303" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="304" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G304" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="306" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F306" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="308" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F308" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="309" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G309" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="311" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F311" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="313" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F313" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="314" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F314" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="317" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D317" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="318" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E318" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="320" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C320" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C321" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C322" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D324" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D327" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D328" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D329" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D330" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D331" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D332" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D334" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D335" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="337" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D337" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="338" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D338" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="341" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D341" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="342" spans="4:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E342" s="8" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="343" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E343" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="345" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E345" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="346" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F346" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="347" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E347" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="348" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F348" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="350" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D350" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="351" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D351" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="352" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D352" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="353" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D353" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="354" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D354" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="355" spans="4:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="E355" s="8" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="357" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E357" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="358" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E358" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="359" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E359" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="361" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E361" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="362" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F362" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="363" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E363" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="364" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F364" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="367" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D367" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="368" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E368" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <v>3</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B372" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B377" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B378" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B379" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B380" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B381" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="385" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C385" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="386" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C386" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="387" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C387" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="389" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C389" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="390" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C390" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="392" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C392" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="393" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="394" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I394" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="395" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C395">
+        <v>3</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I395" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="396" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I396" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="397" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C397">
+        <v>5</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I397" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="399" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C399" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C401" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C404" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C405" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C406" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C407" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C408" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C409" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C411" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C412" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C414" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C416" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C417" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C419" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C420" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C421" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C423" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C424" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C425" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C426" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <v>4</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B430" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B431" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B432" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B434" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B435" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B436" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C440" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C441" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C442" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C444" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C446" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C448" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C449" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C452" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C453" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C455" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C456" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C458" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C461" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C462" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C463" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C464" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="465" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C465" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C466" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C468" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C470" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C471" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="472" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C472" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C473" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C474" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C475" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="476" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C476" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C477" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="479" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C479" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="480" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D480" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="481" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D481" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="482" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C482" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="484" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C484" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="485" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D485" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="486" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D486" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H486" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="487" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C487" t="s">
+        <v>812</v>
+      </c>
+      <c r="H487" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="489" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B489" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="491" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B491">
+        <v>2</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="493" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C493" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="495" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C495" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="496" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C496" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="498" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D498" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="499" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D499" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="500" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D500" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="502" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D502" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="503" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D503" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="504" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D504" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="505" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D505" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="507" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D507" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="508" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E508" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="510" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C510" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="511" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C511" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="513" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C513" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="514" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="515" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="517" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C517" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="518" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C518" t="s">
+        <v>1198</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>